--- a/biology/Zoologie/Anomalurus_pusillus/Anomalurus_pusillus.xlsx
+++ b/biology/Zoologie/Anomalurus_pusillus/Anomalurus_pusillus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anomalure nain, Anomalure pygmée, Écureuil volant pygmée
 Anomalurus pusillus est une espèce d'anomalures, des rongeurs de la famille des Anomalurinae. C'est un mammifère arboricole africain qui fait partie des écureuils volants.
-En français, l'espèce s'appelle Anomalure nain[1],[2], Anomalure pygmée[2] ou Écureuil volant pygmée[1].
+En français, l'espèce s'appelle Anomalure nain Anomalure pygmée ou Écureuil volant pygmée.
 </t>
         </is>
       </c>
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -540,6 +554,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
